--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mfng-Notch1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mfng-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Mfng</t>
   </si>
   <si>
     <t>Notch1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.7330636302447</v>
+        <v>20.089847</v>
       </c>
       <c r="H2">
-        <v>19.7330636302447</v>
+        <v>60.269541</v>
       </c>
       <c r="I2">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="J2">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N2">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q2">
-        <v>1175.140877202382</v>
+        <v>1208.271288869629</v>
       </c>
       <c r="R2">
-        <v>1175.140877202382</v>
+        <v>10874.44159982666</v>
       </c>
       <c r="S2">
-        <v>0.4943216924236162</v>
+        <v>0.4787137311630722</v>
       </c>
       <c r="T2">
-        <v>0.4943216924236162</v>
+        <v>0.4787137311630721</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.7330636302447</v>
+        <v>20.089847</v>
       </c>
       <c r="H3">
-        <v>19.7330636302447</v>
+        <v>60.269541</v>
       </c>
       <c r="I3">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="J3">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N3">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q3">
-        <v>214.3048326362133</v>
+        <v>221.9943093919093</v>
       </c>
       <c r="R3">
-        <v>214.3048326362133</v>
+        <v>1997.948784527184</v>
       </c>
       <c r="S3">
-        <v>0.09014708756918563</v>
+        <v>0.08795352924870913</v>
       </c>
       <c r="T3">
-        <v>0.09014708756918563</v>
+        <v>0.08795352924870911</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.7330636302447</v>
+        <v>20.089847</v>
       </c>
       <c r="H4">
-        <v>19.7330636302447</v>
+        <v>60.269541</v>
       </c>
       <c r="I4">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="J4">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N4">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q4">
-        <v>237.5107887296813</v>
+        <v>246.1977936433233</v>
       </c>
       <c r="R4">
-        <v>237.5107887296813</v>
+        <v>2215.78014278991</v>
       </c>
       <c r="S4">
-        <v>0.09990864698131359</v>
+        <v>0.09754288253374876</v>
       </c>
       <c r="T4">
-        <v>0.09990864698131359</v>
+        <v>0.09754288253374875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.7330636302447</v>
+        <v>20.089847</v>
       </c>
       <c r="H5">
-        <v>19.7330636302447</v>
+        <v>60.269541</v>
       </c>
       <c r="I5">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="J5">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N5">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q5">
-        <v>255.1606334011524</v>
+        <v>263.590826458353</v>
       </c>
       <c r="R5">
-        <v>255.1606334011524</v>
+        <v>2372.317438125177</v>
       </c>
       <c r="S5">
-        <v>0.1073330343533078</v>
+        <v>0.104433953861707</v>
       </c>
       <c r="T5">
-        <v>0.1073330343533078</v>
+        <v>0.104433953861707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.7330636302447</v>
+        <v>20.089847</v>
       </c>
       <c r="H6">
-        <v>19.7330636302447</v>
+        <v>60.269541</v>
       </c>
       <c r="I6">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="J6">
-        <v>0.9083434735718637</v>
+        <v>0.8908882414095813</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N6">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O6">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P6">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q6">
-        <v>277.269281159185</v>
+        <v>308.543667207083</v>
       </c>
       <c r="R6">
-        <v>277.269281159185</v>
+        <v>2776.893004863747</v>
       </c>
       <c r="S6">
-        <v>0.1166330122444403</v>
+        <v>0.1222441446023444</v>
       </c>
       <c r="T6">
-        <v>0.1166330122444403</v>
+        <v>0.1222441446023444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.471581553584597</v>
+        <v>0.174997</v>
       </c>
       <c r="H7">
-        <v>0.471581553584597</v>
+        <v>0.524991</v>
       </c>
       <c r="I7">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="J7">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N7">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O7">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P7">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q7">
-        <v>28.08356426229157</v>
+        <v>10.52491095319533</v>
       </c>
       <c r="R7">
-        <v>28.08356426229157</v>
+        <v>94.72419857875799</v>
       </c>
       <c r="S7">
-        <v>0.01181331981955432</v>
+        <v>0.004169940508374412</v>
       </c>
       <c r="T7">
-        <v>0.01181331981955432</v>
+        <v>0.004169940508374411</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.471581553584597</v>
+        <v>0.174997</v>
       </c>
       <c r="H8">
-        <v>0.471581553584597</v>
+        <v>0.524991</v>
       </c>
       <c r="I8">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="J8">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N8">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P8">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q8">
-        <v>5.121465567078764</v>
+        <v>1.933729916442667</v>
       </c>
       <c r="R8">
-        <v>5.121465567078764</v>
+        <v>17.403569247984</v>
       </c>
       <c r="S8">
-        <v>0.002154338748588736</v>
+        <v>0.0007661384259390503</v>
       </c>
       <c r="T8">
-        <v>0.002154338748588736</v>
+        <v>0.0007661384259390502</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.471581553584597</v>
+        <v>0.174997</v>
       </c>
       <c r="H9">
-        <v>0.471581553584597</v>
+        <v>0.524991</v>
       </c>
       <c r="I9">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="J9">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N9">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O9">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P9">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q9">
-        <v>5.676042445359365</v>
+        <v>2.144559652156667</v>
       </c>
       <c r="R9">
-        <v>5.676042445359365</v>
+        <v>19.30103686941</v>
       </c>
       <c r="S9">
-        <v>0.00238762089064417</v>
+        <v>0.0008496685820832003</v>
       </c>
       <c r="T9">
-        <v>0.00238762089064417</v>
+        <v>0.0008496685820832</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.471581553584597</v>
+        <v>0.174997</v>
       </c>
       <c r="H10">
-        <v>0.471581553584597</v>
+        <v>0.524991</v>
       </c>
       <c r="I10">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="J10">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N10">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O10">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P10">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q10">
-        <v>6.097839147922167</v>
+        <v>2.296065463203</v>
       </c>
       <c r="R10">
-        <v>6.097839147922167</v>
+        <v>20.664589168827</v>
       </c>
       <c r="S10">
-        <v>0.002565049200657452</v>
+        <v>0.0009096947639241421</v>
       </c>
       <c r="T10">
-        <v>0.002565049200657452</v>
+        <v>0.000909694763924142</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.471581553584597</v>
+        <v>0.174997</v>
       </c>
       <c r="H11">
-        <v>0.471581553584597</v>
+        <v>0.524991</v>
       </c>
       <c r="I11">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="J11">
-        <v>0.02170762910828038</v>
+        <v>0.007760276600511319</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N11">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O11">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P11">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q11">
-        <v>6.626192507174897</v>
+        <v>2.687637000433</v>
       </c>
       <c r="R11">
-        <v>6.626192507174897</v>
+        <v>24.188733003897</v>
       </c>
       <c r="S11">
-        <v>0.002787300448835701</v>
+        <v>0.001064834320190515</v>
       </c>
       <c r="T11">
-        <v>0.002787300448835701</v>
+        <v>0.001064834320190515</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.51958601766622</v>
+        <v>0.4735023333333333</v>
       </c>
       <c r="H12">
-        <v>1.51958601766622</v>
+        <v>1.420507</v>
       </c>
       <c r="I12">
-        <v>0.06994889731985592</v>
+        <v>0.0209975546875328</v>
       </c>
       <c r="J12">
-        <v>0.06994889731985592</v>
+        <v>0.0209975546875328</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N12">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O12">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P12">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q12">
-        <v>90.4941918419493</v>
+        <v>28.47803044888511</v>
       </c>
       <c r="R12">
-        <v>90.4941918419493</v>
+        <v>256.302274039966</v>
       </c>
       <c r="S12">
-        <v>0.03806628033594976</v>
+        <v>0.01128291662472197</v>
       </c>
       <c r="T12">
-        <v>0.03806628033594976</v>
+        <v>0.01128291662472197</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.51958601766622</v>
+        <v>0.4735023333333333</v>
       </c>
       <c r="H13">
-        <v>1.51958601766622</v>
+        <v>1.420507</v>
       </c>
       <c r="I13">
-        <v>0.06994889731985592</v>
+        <v>0.0209975546875328</v>
       </c>
       <c r="J13">
-        <v>0.06994889731985592</v>
+        <v>0.0209975546875328</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N13">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O13">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P13">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q13">
-        <v>16.50299382267034</v>
+        <v>5.232236138174222</v>
       </c>
       <c r="R13">
-        <v>16.50299382267034</v>
+        <v>47.090125243568</v>
       </c>
       <c r="S13">
-        <v>0.006941965848298848</v>
+        <v>0.002072997436175863</v>
       </c>
       <c r="T13">
-        <v>0.006941965848298848</v>
+        <v>0.002072997436175863</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.51958601766622</v>
+        <v>0.4735023333333333</v>
       </c>
       <c r="H14">
-        <v>1.51958601766622</v>
+        <v>1.420507</v>
       </c>
       <c r="I14">
-        <v>0.06994889731985592</v>
+        <v>0.0209975546875328</v>
       </c>
       <c r="J14">
-        <v>0.06994889731985592</v>
+        <v>0.0209975546875328</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N14">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O14">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P14">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q14">
-        <v>18.29001721989702</v>
+        <v>5.802693756285556</v>
       </c>
       <c r="R14">
-        <v>18.29001721989702</v>
+        <v>52.22424380657</v>
       </c>
       <c r="S14">
-        <v>0.007693675236726122</v>
+        <v>0.00229901116119945</v>
       </c>
       <c r="T14">
-        <v>0.007693675236726122</v>
+        <v>0.00229901116119945</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.51958601766622</v>
+        <v>0.4735023333333333</v>
       </c>
       <c r="H15">
-        <v>1.51958601766622</v>
+        <v>1.420507</v>
       </c>
       <c r="I15">
-        <v>0.06994889731985592</v>
+        <v>0.0209975546875328</v>
       </c>
       <c r="J15">
-        <v>0.06994889731985592</v>
+        <v>0.0209975546875328</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N15">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O15">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P15">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q15">
-        <v>19.64918058546995</v>
+        <v>6.212634241231</v>
       </c>
       <c r="R15">
-        <v>19.64918058546995</v>
+        <v>55.913708171079</v>
       </c>
       <c r="S15">
-        <v>0.00826540578255623</v>
+        <v>0.002461428443568731</v>
       </c>
       <c r="T15">
-        <v>0.00826540578255623</v>
+        <v>0.00246142844356873</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4735023333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.420507</v>
+      </c>
+      <c r="I16">
+        <v>0.0209975546875328</v>
+      </c>
+      <c r="J16">
+        <v>0.0209975546875328</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.358189</v>
+      </c>
+      <c r="N16">
+        <v>46.074567</v>
+      </c>
+      <c r="O16">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="P16">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="Q16">
+        <v>7.272138327274334</v>
+      </c>
+      <c r="R16">
+        <v>65.449244945469</v>
+      </c>
+      <c r="S16">
+        <v>0.002881201021866791</v>
+      </c>
+      <c r="T16">
+        <v>0.00288120102186679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.806672333333333</v>
+      </c>
+      <c r="H17">
+        <v>5.420017</v>
+      </c>
+      <c r="I17">
+        <v>0.08011724219933972</v>
+      </c>
+      <c r="J17">
+        <v>0.0801172421993397</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>60.14337933333334</v>
+      </c>
+      <c r="N17">
+        <v>180.430138</v>
+      </c>
+      <c r="O17">
+        <v>0.5373443142606099</v>
+      </c>
+      <c r="P17">
+        <v>0.5373443142606098</v>
+      </c>
+      <c r="Q17">
+        <v>108.6593794747051</v>
+      </c>
+      <c r="R17">
+        <v>977.934415272346</v>
+      </c>
+      <c r="S17">
+        <v>0.0430505445700554</v>
+      </c>
+      <c r="T17">
+        <v>0.04305054457005538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.806672333333333</v>
+      </c>
+      <c r="H18">
+        <v>5.420017</v>
+      </c>
+      <c r="I18">
+        <v>0.08011724219933972</v>
+      </c>
+      <c r="J18">
+        <v>0.0801172421993397</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.05007466666667</v>
+      </c>
+      <c r="N18">
+        <v>33.150224</v>
+      </c>
+      <c r="O18">
+        <v>0.09872565958390839</v>
+      </c>
+      <c r="P18">
+        <v>0.09872565958390837</v>
+      </c>
+      <c r="Q18">
+        <v>19.96386418153422</v>
+      </c>
+      <c r="R18">
+        <v>179.674777633808</v>
+      </c>
+      <c r="S18">
+        <v>0.007909627580173552</v>
+      </c>
+      <c r="T18">
+        <v>0.00790962758017355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.806672333333333</v>
+      </c>
+      <c r="H19">
+        <v>5.420017</v>
+      </c>
+      <c r="I19">
+        <v>0.08011724219933972</v>
+      </c>
+      <c r="J19">
+        <v>0.0801172421993397</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>12.25483666666667</v>
+      </c>
+      <c r="N19">
+        <v>36.76451</v>
+      </c>
+      <c r="O19">
+        <v>0.1094894712937444</v>
+      </c>
+      <c r="P19">
+        <v>0.1094894712937444</v>
+      </c>
+      <c r="Q19">
+        <v>22.14047435518556</v>
+      </c>
+      <c r="R19">
+        <v>199.26426919667</v>
+      </c>
+      <c r="S19">
+        <v>0.008771994489918571</v>
+      </c>
+      <c r="T19">
+        <v>0.008771994489918567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.806672333333333</v>
+      </c>
+      <c r="H20">
+        <v>5.420017</v>
+      </c>
+      <c r="I20">
+        <v>0.08011724219933972</v>
+      </c>
+      <c r="J20">
+        <v>0.0801172421993397</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>13.120599</v>
+      </c>
+      <c r="N20">
+        <v>39.361797</v>
+      </c>
+      <c r="O20">
+        <v>0.1172245282937728</v>
+      </c>
+      <c r="P20">
+        <v>0.1172245282937728</v>
+      </c>
+      <c r="Q20">
+        <v>23.704623210061</v>
+      </c>
+      <c r="R20">
+        <v>213.341608890549</v>
+      </c>
+      <c r="S20">
+        <v>0.009391705925015547</v>
+      </c>
+      <c r="T20">
+        <v>0.009391705925015545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.51958601766622</v>
-      </c>
-      <c r="H16">
-        <v>1.51958601766622</v>
-      </c>
-      <c r="I16">
-        <v>0.06994889731985592</v>
-      </c>
-      <c r="J16">
-        <v>0.06994889731985592</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>14.0510002072976</v>
-      </c>
-      <c r="N16">
-        <v>14.0510002072976</v>
-      </c>
-      <c r="O16">
-        <v>0.128401882809601</v>
-      </c>
-      <c r="P16">
-        <v>0.128401882809601</v>
-      </c>
-      <c r="Q16">
-        <v>21.35170344923459</v>
-      </c>
-      <c r="R16">
-        <v>21.35170344923459</v>
-      </c>
-      <c r="S16">
-        <v>0.008981570116324953</v>
-      </c>
-      <c r="T16">
-        <v>0.008981570116324953</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.806672333333333</v>
+      </c>
+      <c r="H21">
+        <v>5.420017</v>
+      </c>
+      <c r="I21">
+        <v>0.08011724219933972</v>
+      </c>
+      <c r="J21">
+        <v>0.0801172421993397</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>15.358189</v>
+      </c>
+      <c r="N21">
+        <v>46.074567</v>
+      </c>
+      <c r="O21">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="P21">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="Q21">
+        <v>27.74721515640433</v>
+      </c>
+      <c r="R21">
+        <v>249.724936407639</v>
+      </c>
+      <c r="S21">
+        <v>0.01099336963417666</v>
+      </c>
+      <c r="T21">
+        <v>0.01099336963417665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.005337333333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.016012</v>
+      </c>
+      <c r="I22">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="J22">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>60.14337933333334</v>
+      </c>
+      <c r="N22">
+        <v>180.430138</v>
+      </c>
+      <c r="O22">
+        <v>0.5373443142606099</v>
+      </c>
+      <c r="P22">
+        <v>0.5373443142606098</v>
+      </c>
+      <c r="Q22">
+        <v>0.3210052632951111</v>
+      </c>
+      <c r="R22">
+        <v>2.889047369656</v>
+      </c>
+      <c r="S22">
+        <v>0.000127181394385982</v>
+      </c>
+      <c r="T22">
+        <v>0.000127181394385982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.005337333333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.016012</v>
+      </c>
+      <c r="I23">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="J23">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>11.05007466666667</v>
+      </c>
+      <c r="N23">
+        <v>33.150224</v>
+      </c>
+      <c r="O23">
+        <v>0.09872565958390839</v>
+      </c>
+      <c r="P23">
+        <v>0.09872565958390837</v>
+      </c>
+      <c r="Q23">
+        <v>0.05897793185422222</v>
+      </c>
+      <c r="R23">
+        <v>0.5308013866879999</v>
+      </c>
+      <c r="S23">
+        <v>2.336689291080432E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.336689291080432E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.005337333333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.016012</v>
+      </c>
+      <c r="I24">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="J24">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>12.25483666666667</v>
+      </c>
+      <c r="N24">
+        <v>36.76451</v>
+      </c>
+      <c r="O24">
+        <v>0.1094894712937444</v>
+      </c>
+      <c r="P24">
+        <v>0.1094894712937444</v>
+      </c>
+      <c r="Q24">
+        <v>0.06540814823555556</v>
+      </c>
+      <c r="R24">
+        <v>0.58867333412</v>
+      </c>
+      <c r="S24">
+        <v>2.591452679439495E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.591452679439494E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.005337333333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.016012</v>
+      </c>
+      <c r="I25">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="J25">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>13.120599</v>
+      </c>
+      <c r="N25">
+        <v>39.361797</v>
+      </c>
+      <c r="O25">
+        <v>0.1172245282937728</v>
+      </c>
+      <c r="P25">
+        <v>0.1172245282937728</v>
+      </c>
+      <c r="Q25">
+        <v>0.070029010396</v>
+      </c>
+      <c r="R25">
+        <v>0.630261093564</v>
+      </c>
+      <c r="S25">
+        <v>2.774529955742739E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.774529955742738E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.005337333333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.016012</v>
+      </c>
+      <c r="I26">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="J26">
+        <v>0.0002366851030348848</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>15.358189</v>
+      </c>
+      <c r="N26">
+        <v>46.074567</v>
+      </c>
+      <c r="O26">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="P26">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="Q26">
+        <v>0.08197177408933333</v>
+      </c>
+      <c r="R26">
+        <v>0.737745966804</v>
+      </c>
+      <c r="S26">
+        <v>3.247698938627621E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.247698938627619E-05</v>
       </c>
     </row>
   </sheetData>
